--- a/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,69; 35,89</t>
+          <t>24,48; 35,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,23</t>
+          <t>3,89; 9,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,81; 37,16</t>
+          <t>25,74; 36,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,32</t>
+          <t>4,91; 9,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,88; 34,54</t>
+          <t>26,76; 34,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,35</t>
+          <t>4,88; 8,48</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,94</t>
+          <t>11,5; 17,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,55</t>
+          <t>3,56; 8,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,66</t>
+          <t>11,46; 18,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,22</t>
+          <t>4,55; 8,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,05</t>
+          <t>12,55; 16,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>4,49; 7,53</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,93</t>
+          <t>5,76; 11,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 24,15</t>
+          <t>16,38; 24,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,96</t>
+          <t>11,72; 19,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 24,29</t>
+          <t>17,6; 24,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,75</t>
+          <t>9,63; 14,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 23,47</t>
+          <t>17,85; 23,24</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 19,79</t>
+          <t>12,2; 20,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 17,47</t>
+          <t>9,45; 17,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,8</t>
+          <t>23,19; 33,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,61</t>
+          <t>9,05; 15,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 25,2</t>
+          <t>19,05; 25,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,23</t>
+          <t>10,06; 15,19</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,81; 40,88</t>
+          <t>27,82; 40,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,48</t>
+          <t>4,91; 10,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,44; 47,94</t>
+          <t>34,89; 48,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,78</t>
+          <t>6,67; 11,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,46; 42,7</t>
+          <t>33,5; 42,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,33</t>
+          <t>6,16; 9,99</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,76</t>
+          <t>14,17; 23,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,7; 26,14</t>
+          <t>17,51; 26,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,04; 27,09</t>
+          <t>16,67; 27,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 26,52</t>
+          <t>18,67; 26,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,83</t>
+          <t>16,56; 23,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,59; 25,03</t>
+          <t>19,5; 25,04</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,38</t>
+          <t>13,48; 19,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,85</t>
+          <t>7,31; 12,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,17</t>
+          <t>17,52; 24,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,93</t>
+          <t>6,94; 13,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,45; 20,92</t>
+          <t>16,41; 21,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,22</t>
+          <t>7,72; 12,25</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,17; 22,58</t>
+          <t>16,9; 22,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,05; 24,53</t>
+          <t>16,91; 24,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,54; 28,73</t>
+          <t>22,5; 28,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,71; 36,64</t>
+          <t>30,29; 36,68</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,44; 24,96</t>
+          <t>20,57; 24,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,66; 29,77</t>
+          <t>24,18; 29,68</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,1</t>
+          <t>17,2; 19,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,94</t>
+          <t>12,49; 14,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,03; 24,96</t>
+          <t>22,06; 24,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,26; 18,25</t>
+          <t>15,09; 18,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,09; 22,08</t>
+          <t>19,89; 22,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,53; 16,4</t>
+          <t>14,39; 16,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,48; 35,63</t>
+          <t>24,52; 35,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,74; 36,84</t>
+          <t>25,31; 36,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,76; 34,27</t>
+          <t>26,78; 34,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,85</t>
+          <t>11,49; 17,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,01</t>
+          <t>11,63; 18,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 16,96</t>
+          <t>12,27; 17,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,73</t>
+          <t>5,79; 11,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,72; 19,67</t>
+          <t>11,59; 20,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,76</t>
+          <t>9,83; 15,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 20,46</t>
+          <t>12,05; 19,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,19; 33,03</t>
+          <t>23,64; 33,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 25,1</t>
+          <t>19,25; 25,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,82; 40,7</t>
+          <t>28,32; 41,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,89; 48,34</t>
+          <t>34,88; 47,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,5; 42,6</t>
+          <t>33,27; 42,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 23,49</t>
+          <t>14,18; 24,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,5</t>
+          <t>17,44; 27,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 23,89</t>
+          <t>16,75; 23,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,48; 19,45</t>
+          <t>13,34; 19,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,09</t>
+          <t>17,91; 24,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,41; 21,0</t>
+          <t>16,6; 20,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,9; 22,59</t>
+          <t>17,18; 22,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,5; 28,95</t>
+          <t>22,42; 28,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,57; 24,84</t>
+          <t>20,61; 25,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,2; 19,9</t>
+          <t>17,26; 19,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,06; 24,93</t>
+          <t>22,06; 24,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,89; 22,07</t>
+          <t>19,94; 22,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">

--- a/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,52; 35,65</t>
+          <t>24,69; 35,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,48</t>
+          <t>3,78; 9,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,31; 36,5</t>
+          <t>25,81; 37,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,0</t>
+          <t>4,93; 9,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,57</t>
+          <t>26,88; 34,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 8,48</t>
+          <t>4,87; 8,35</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 17,55</t>
+          <t>11,57; 17,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,81</t>
+          <t>3,47; 8,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,63; 18,16</t>
+          <t>12,08; 18,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 8,13</t>
+          <t>4,66; 8,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,18</t>
+          <t>12,23; 17,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,53</t>
+          <t>4,53; 7,67</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,63</t>
+          <t>5,92; 11,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 24,92</t>
+          <t>16,0; 24,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,59; 20,22</t>
+          <t>11,66; 19,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 24,64</t>
+          <t>17,45; 24,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 15,2</t>
+          <t>9,54; 14,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 23,24</t>
+          <t>17,95; 23,47</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 19,74</t>
+          <t>12,33; 19,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 17,76</t>
+          <t>9,19; 17,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,64; 33,4</t>
+          <t>23,1; 32,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,05; 15,84</t>
+          <t>9,28; 15,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 25,58</t>
+          <t>19,09; 25,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,19</t>
+          <t>10,26; 15,23</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,32; 41,24</t>
+          <t>27,81; 40,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,87</t>
+          <t>4,59; 10,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,88; 47,68</t>
+          <t>35,44; 47,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 11,44</t>
+          <t>6,77; 11,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,27; 42,86</t>
+          <t>33,46; 42,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,99</t>
+          <t>6,4; 10,33</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,18; 24,61</t>
+          <t>14,13; 23,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,51; 26,0</t>
+          <t>17,7; 26,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,44; 27,39</t>
+          <t>17,04; 27,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,67; 26,27</t>
+          <t>19,02; 26,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,94</t>
+          <t>16,95; 23,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,5; 25,04</t>
+          <t>19,59; 25,03</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,22</t>
+          <t>13,62; 19,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,31; 12,12</t>
+          <t>7,25; 11,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,4</t>
+          <t>17,65; 24,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,94; 13,78</t>
+          <t>6,8; 13,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,6; 20,97</t>
+          <t>16,45; 20,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,72; 12,25</t>
+          <t>7,96; 12,22</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,96</t>
+          <t>17,17; 22,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,91; 24,39</t>
+          <t>17,05; 24,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,42; 28,78</t>
+          <t>22,54; 28,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,29; 36,68</t>
+          <t>30,71; 36,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,61; 25,03</t>
+          <t>20,44; 24,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,18; 29,68</t>
+          <t>24,66; 29,77</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,87</t>
+          <t>17,29; 20,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,93</t>
+          <t>12,49; 14,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,06; 24,97</t>
+          <t>22,03; 24,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,09; 18,21</t>
+          <t>15,26; 18,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,94; 22,08</t>
+          <t>20,09; 22,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,39; 16,34</t>
+          <t>14,53; 16,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,14%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,23</t>
+          <t>3,55; 8,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 9,32</t>
+          <t>4,76; 9,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,35</t>
+          <t>4,58; 8,15</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,79%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,55</t>
+          <t>3,47; 8,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,22</t>
+          <t>4,69; 8,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,67</t>
+          <t>4,48; 7,68</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>20,22%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,0; 24,15</t>
+          <t>15,66; 23,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 24,29</t>
+          <t>17,48; 24,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 23,47</t>
+          <t>17,7; 23,15</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,14%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 17,47</t>
+          <t>8,84; 17,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,61</t>
+          <t>6,03; 14,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,26; 15,23</t>
+          <t>7,87; 14,19</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 10,48</t>
+          <t>4,52; 10,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,78</t>
+          <t>6,82; 11,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,33</t>
+          <t>6,43; 10,31</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>21,92%</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,7; 26,14</t>
+          <t>17,48; 25,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 26,52</t>
+          <t>19,02; 26,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,59; 25,03</t>
+          <t>19,49; 24,92</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,85</t>
+          <t>7,1; 11,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,8; 13,93</t>
+          <t>4,43; 13,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 12,22</t>
+          <t>6,07; 11,81</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>24,39%</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,05; 24,53</t>
+          <t>7,64; 23,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,71; 36,64</t>
+          <t>31,37; 37,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,66; 29,77</t>
+          <t>15,2; 29,24</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>14,16%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,94</t>
+          <t>9,92; 13,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,26; 18,25</t>
+          <t>12,79; 17,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,53; 16,4</t>
+          <t>12,43; 15,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +640,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,69; 35,89</t>
+          <t>24,54; 35,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,87</t>
+          <t>3,68; 9,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,81; 37,16</t>
+          <t>25,44; 36,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,02</t>
+          <t>4,51; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,88; 34,54</t>
+          <t>26,53; 34,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,15</t>
+          <t>4,56; 7,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +720,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 17,94</t>
+          <t>11,45; 17,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 8,73</t>
+          <t>3,49; 8,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,66</t>
+          <t>11,53; 18,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,22</t>
+          <t>4,54; 8,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,05</t>
+          <t>12,52; 16,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,68</t>
+          <t>4,37; 7,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,93</t>
+          <t>6,07; 11,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 23,73</t>
+          <t>15,73; 24,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 19,96</t>
+          <t>11,66; 20,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,25</t>
+          <t>17,37; 24,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,75</t>
+          <t>9,71; 15,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 23,15</t>
+          <t>17,42; 23,1</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 19,79</t>
+          <t>12,65; 20,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,84; 17,33</t>
+          <t>8,92; 17,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,1; 32,8</t>
+          <t>23,74; 32,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 14,17</t>
+          <t>5,51; 13,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 25,2</t>
+          <t>19,05; 25,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 14,19</t>
+          <t>8,14; 13,97</t>
         </is>
       </c>
     </row>
@@ -959,39 +960,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,81; 40,88</t>
+          <t>28,5; 41,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,39</t>
+          <t>4,69; 10,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,44; 47,94</t>
+          <t>34,99; 48,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 11,77</t>
+          <t>6,78; 11,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,46; 42,7</t>
+          <t>33,5; 42,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,31</t>
+          <t>6,33; 10,16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1039,39 +1040,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,76</t>
+          <t>14,32; 23,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 25,91</t>
+          <t>17,31; 25,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,04; 27,09</t>
+          <t>16,76; 27,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 26,53</t>
+          <t>18,94; 26,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,83</t>
+          <t>16,87; 24,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,49; 24,92</t>
+          <t>18,98; 24,65</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,38</t>
+          <t>13,46; 19,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 11,67</t>
+          <t>7,03; 11,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,65; 24,17</t>
+          <t>17,33; 23,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 13,59</t>
+          <t>4,28; 13,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,45; 20,92</t>
+          <t>16,58; 20,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,81</t>
+          <t>5,75; 11,67</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,17; 22,58</t>
+          <t>17,02; 22,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,64; 23,48</t>
+          <t>7,28; 23,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,54; 28,73</t>
+          <t>22,21; 28,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>31,37; 37,13</t>
+          <t>31,42; 37,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,44; 24,96</t>
+          <t>20,65; 24,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,2; 29,24</t>
+          <t>14,96; 29,13</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1280,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,1</t>
+          <t>17,16; 19,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,94</t>
+          <t>9,79; 13,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,03; 24,96</t>
+          <t>22,11; 25,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,28</t>
+          <t>12,85; 17,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,09; 22,08</t>
+          <t>20,07; 22,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,43; 15,38</t>
+          <t>12,3; 15,33</t>
         </is>
       </c>
     </row>
@@ -1333,4 +1334,1190 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>87446</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18144</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>89665</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18760</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>177111</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>36904</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>71866; 104876</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11471; 28359</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>73436; 105875</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13063; 24842</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>154308; 199944</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27401; 47722</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>71924</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28414</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>77270</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31207</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>149194</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>59621</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>57198; 89096</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18075; 45758</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>60077; 94905</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23205; 41405</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>127816; 171978</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>45010; 79404</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26891</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61468</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52065</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72370</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78956</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>133839</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19289; 38072</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49425; 75900</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39223; 67333</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>60362; 86145</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>63519; 98829</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>115312; 152863</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>58247</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38524</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>107793</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46964</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>166040</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85488</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46423; 75573</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>27240; 53064</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>91359; 126612</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25611; 63810</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>143237; 192487</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62725; 107661</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>72523</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12838</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90729</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18419</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>163252</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31257</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>60203; 86817</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8377; 18867</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>76491; 105371</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14011; 24550</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>144007; 183943</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24414; 39175</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>48915</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>57348</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>58729</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>58057</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>107644</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>115405</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37671; 62398</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>46666; 69152</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45609; 73855</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>48614; 67983</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>90312; 129635</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>99911; 129737</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>106334</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>57478</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>141647</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>82673</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>247980</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>140152</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>87649; 128013</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43842; 73992</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>118241; 163407</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36260; 116255</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>221069; 278673</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>84625; 171603</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>153812</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>155662</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>245398</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>363818</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>401060</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>132486; 177734</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>67530; 220371</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>183068; 236974</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>225023; 267275</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>331008; 397328</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>246023; 478984</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>626093</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>429876</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>827903</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>573850</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1453996</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1003726</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>580009; 668542</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>337766; 478937</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>780032; 882980</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>467756; 632423</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1386274; 1529294</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>872095; 1086800</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>